--- a/Files/crops.xlsx
+++ b/Files/crops.xlsx
@@ -8,19 +8,20 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="crops" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="field" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">crop</t>
   </si>
@@ -28,16 +29,10 @@
     <t xml:space="preserve">field</t>
   </si>
   <si>
-    <t xml:space="preserve">pesticide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pesticide_amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fertilizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fertilizer_amount</t>
+    <t xml:space="preserve">planting_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seedling_age</t>
   </si>
   <si>
     <t xml:space="preserve">water_amount</t>
@@ -52,39 +47,32 @@
     <t xml:space="preserve">av_light</t>
   </si>
   <si>
+    <t xml:space="preserve">harvest_date</t>
+  </si>
+  <si>
     <t xml:space="preserve">yield_mass</t>
   </si>
   <si>
-    <t xml:space="preserve">maize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sugar_cane</t>
+    <t xml:space="preserve">kak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/10/2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -150,13 +138,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -176,87 +172,103 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="20.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.66"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="2" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="AMJ1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>16</v>
-      </c>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/Files/crops.xlsx
+++ b/Files/crops.xlsx
@@ -41,9 +41,6 @@
     <t xml:space="preserve">disease</t>
   </si>
   <si>
-    <t xml:space="preserve">av_temperature</t>
-  </si>
-  <si>
     <t xml:space="preserve">av_light</t>
   </si>
   <si>
@@ -53,10 +50,13 @@
     <t xml:space="preserve">yield_mass</t>
   </si>
   <si>
-    <t xml:space="preserve">kak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30/10/2021</t>
+    <t xml:space="preserve">spinach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/10/2021</t>
   </si>
 </sst>
 </file>
@@ -175,18 +175,17 @@
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="20.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.66"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -217,23 +216,21 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AMJ1" s="1"/>
+      <c r="AMI1" s="1"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -261,7 +258,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Files/crops.xlsx
+++ b/Files/crops.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="crops" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t xml:space="preserve">crop</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mice</t>
   </si>
   <si>
     <t xml:space="preserve">date</t>
@@ -165,7 +168,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -176,6 +179,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -203,13 +210,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ4"/>
+  <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.38"/>
@@ -292,6 +299,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>44584</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -310,34 +331,34 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="0" width="19.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="19.91"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -347,11 +368,11 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="5" t="n">
         <v>44552</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
